--- a/data/atp/ranking_doubles_2018-01-15.xlsx
+++ b/data/atp/ranking_doubles_2018-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,12 +677,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21 - 23</t>
+          <t>21 - 24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>661 - 449</t>
+          <t>661 - 450</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -879,12 +879,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>19 - 22</t>
+          <t>20 - 23</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>430 - 297</t>
+          <t>431 - 298</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1046,6 +1046,9480 @@
           <t>40 (1985/01/02)</t>
         </is>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N. Mahut</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/nicolas-mahut/m873/overview</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0 - 5</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>471 - 305</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>181 lbs (82kg)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Angers, France</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Nicolas Copin, Nicolas Renavand</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>43 (1982/01/21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>J. Rojer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/jean-julien-rojer/r513/overview</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>7 - 15</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>545 - 415</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>185 lbs (84kg)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Curacao</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Luis Fernando Manrique</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>44 (1981/08/25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>H. Tecau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/horia-tecau/t749/overview</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>473 - 286</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1985/01/19</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>198 lbs (90kg)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>6'4" (193cm)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Brasov, Romania</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>J. Murray</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/jamie-murray/mc81/overview</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12 - 20</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>589 - 430</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B. Soares</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/bruno-soares/s938/overview</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>545 - 324</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1982/02/27</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>170 lbs (77kg)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>5'11" (180cm)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, Brazil</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Hugo Daibert</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>P. Herbert</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/pierre-hugues-herbert/h996/overview</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4 - 7</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>105 - 134</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12T</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B. Bryan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/bob-bryan/b588/overview</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1109 - 359</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1978/04/29</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>195 lbs (88kg)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>6'4" (193cm)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Camarillo, CA, USA</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Left-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>David Macpherson, Dave Marshall</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12T</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>M. Bryan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/mike-bryan/b589/overview</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1150 - 373</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1978/04/29</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>185 lbs (84kg)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Camarillo, CA, USA</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>David Macpherson, Dave Marshall</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>M. Granollers</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/marcel-granollers/g710/overview</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>27 - 6</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>559 - 336</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>176 lbs (80kg)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Barcelona, Spain</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Gerard Granollers</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>39 (1986/04/12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>M. Venus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/michael-venus/v576/overview</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>25 - 21</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>377 - 257</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>190 lbs (86kg)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Auckland, New Zealand</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Davide Sanguinetti, Pat Harrison</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>37 (1987/10/16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M. Pavic</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/mate-pavic/pf00/overview</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>48 - 16</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>510 - 249</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>183 lbs (83kg)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Split, Croatia</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Left-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Nadja Pavic</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>32 (1993/07/04)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1O. Marach</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/oliver-marach/m760/overview</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>457 - 353</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1980/07/16</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>187 lbs (85kg)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Graz, Austria</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>John Farrington</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>-1R. Harrison</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/ryan-harrison/h940/overview</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>118 - 159</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1992/05/07</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>185 lbs (84kg)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Shreveport, LA, USA</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Davide Sanguinetti</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>R. Bopanna</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/rohan-bopanna/b757/overview</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>14 - 21</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>537 - 407</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>193 lbs (88kg)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>6'4" (193cm)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Bangalore, India</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Scott Davidoff</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>45 (1980/03/04)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>M. Lopez</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/marc-lopez/l480/overview</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>309 - 246</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1982/07/31</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>161 lbs (73kg)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>5'9" (175cm)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Barcelona, Spain</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>P. Cuevas</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/pablo-cuevas/c882/overview</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>242 - 224</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1986/01/01</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>173 lbs (78kg)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>5'11" (180cm)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Concordia, Argentina</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Facundo Savio</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R. Ram</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/rajeev-ram/r548/overview</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>26 - 22</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>502 - 354</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>185 lbs (84kg)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6'4" (193cm)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Denver, CO, USA</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Bryan Smith</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>41 (1984/03/18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>J. Cabal</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/juan-sebastian-cabal/c834/overview</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>394 - 255</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1986/04/25</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>181 lbs (82kg)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Cali, Colombia</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Mariano Hood</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F. Lopez</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/feliciano-lopez/l397/overview</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>506 - 490</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1981/09/20</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>194 lbs (88kg)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>6'2" (188cm)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Toledo, Spain</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Left-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R. Klaasen</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/raven-klaasen/k609/overview</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>321 - 230</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1982/10/16</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>157 lbs (71kg)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>5'10" (178cm)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>King William's Town, RSA</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Stephan de Kock</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>E. Roger-Vasselin</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/edouard-roger-vasselin/r613/overview</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>33 - 19</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>460 - 309</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>173 lbs (78kg)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Gennevilliers, France</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Dave Marshall</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>41 (1983/11/28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>R. Farah</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/robert-farah/f525/overview</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>354 - 223</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1987/01/20</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>196 lbs (89kg)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>6'4" (193cm)</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Montreal, Canada</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Mariano Hood</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>S. Gonzalez</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/santiago-gonzalez/g551/overview</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>22 - 20</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>443 - 389</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>202 lbs (92kg)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Cordoba, Mexico</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Bobsiano Gonzalez</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>42 (1983/02/24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>J. Peralta</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/julio-peralta/p519/overview</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>79 - 61</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1981/09/09</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>174 lbs (79kg)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>6'2" (188cm)</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Paramaribo, Suriname</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Dan Grossman</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>N. Monroe</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/nicholas-monroe/mb49/overview</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>154 - 214</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1982/04/12</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>168 lbs (76kg)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>5'10" (178cm)</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Oklahoma City, OK, USA</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Ben Monroe</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1N. Mektic</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/nikola-mektic/mf09/overview</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>31 - 22</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>362 - 207</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>174 lbs (79kg)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Zagreb, Croatia</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Goran Oresic</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>36 (1988/12/24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>-1A. Qureshi</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/aisam-ul-haq-qureshi/q019/overview</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>394 - 359</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>182 lbs (83kg)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Lahore, Pakistan</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Yasir Khan</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>45 (1980/03/17)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1H. Zeballos</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/horacio-zeballos/z184/overview</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>30 - 10</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>395 - 227</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>185 lbs (84kg)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>6'2" (188cm)</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Mar del Plata, Argentina</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Left-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Alejandro Lombardo</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>40 (1985/04/27)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2F. Martin</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/fabrice-martin/me04/overview</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>238 - 230</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1986/09/11</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>220 lbs (100kg)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>6'6" (198cm)</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Bayonne, France</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Paul Forsyth</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>M. Demoliner</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/marcelo-demoliner/d833/overview</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>4 - 9</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>159 - 184</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>198 lbs (90kg)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Caxias do Sul, Brazil</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Duda Matos, Joao Zwetsch</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>36 (1989/01/18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>-3M. Middelkoop</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/matwe-middelkoop/mb88/overview</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2 - 6</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>239 - 221</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>187 lbs (85kg)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Leerdam, The Netherlands</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Willem-Jan van Hulst, Gerard van Hellemondt</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>42 (1983/09/03)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>N. Zimonjic</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/nenad-zimonjic/z072/overview</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>710 - 427</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1976/06/04</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>200 lbs (91kg)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Belgrade, Serbia</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Marko Nesic</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>M. Daniell</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/marcus-daniell/d763/overview</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>161 - 153</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>178 lbs (81kg)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>6'2" (188cm)</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Masterton</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>David Sammel</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>35 (1989/11/09)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4M. Mirnyi</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/max-mirnyi/m595/overview</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>244 - 242</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>205 lbs (93kg)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>6'5" (196cm)</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Minsk, Belarus</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Nikolai Mirnyi</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>(1977/07/06)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-1J. Sock</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/jack-sock/sm25/overview</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>181 - 154</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>195 lbs (88kg)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Lincoln, NE, USA</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>33 (1992/09/24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>F. Skugor</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/franko-skugor/sf76/overview</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>110 - 118</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1987/09/20</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>211 lbs (96kg)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>6'5" (196cm)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Sibenik, Croatia</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Alan Maric</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>P. Carreno Busta</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/pablo-carreno-busta/cd85/overview</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>8 - 13</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>284 - 233</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>172 lbs (78kg)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>6'2" (188cm)</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Gijon, Spain</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Samuel Lopez, Jose Antonio Sanchez-de Luna</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>34 (1991/07/12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1B. Baker</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/brian-baker/ba23/overview</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>35 - 33</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1985/04/30</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>170 lbs (77kg)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Nashville, TN, USA</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Steve Baker</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5P. Oswald</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/philipp-oswald/o305/overview</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>192 - 209</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1986/01/23</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>209 lbs (95kg)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>6'7" (201cm)</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Feldkirch, Austria</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Joachim Kretz</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1J. Benneteau</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/julien-benneteau/b747/overview</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>273 - 297</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>174 lbs (79kg)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Bourg-en-Bresse, France</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Antoine Benneteau</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>(1981/12/20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1D. Young</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/donald-young/y124/overview</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>124 - 190</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1989/07/23</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>175 lbs (79kg)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Chicago, IL, USA</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Left-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Illona Young, Donald Young Sr.</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>-7M. Matkowski</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/marcin-matkowski/m844/overview</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>472 - 387</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1981/01/15</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>198 lbs (90kg)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Barlinek, Poland</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Radoslaw Szymanik</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2D. Sharan</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/divij-sharan/sd46/overview</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>111 - 121</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>172 lbs (78kg)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Left-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>39 (1986/03/02)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>-1A. Molteni</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/andres-molteni/me56/overview</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>29 - 21</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>249 - 206</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>154 lbs (70kg)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>5'11" (180cm)</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Argentina</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Leonardo Olguin</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>37 (1988/03/15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1M. Zverev</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/mischa-zverev/z168/overview</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>133 - 199</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1987/08/22</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>195 lbs (88kg)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Moscow, Russia</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Left-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Alexander Zverev Sr., Arturs Kazijevs, Mikhail Ledovskikh</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>3R. Jebavy</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/roman-jebavy/j321/overview</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>78 - 94</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>1989/11/16</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>198 lbs (90kg)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Czechia</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Turnov, Czechia</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Lukas Dlouhy</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>A. Peya</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/alexander-peya/p467/overview</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>368 - 266</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1980/06/27</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>183 lbs (83kg)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Vienna, Austria</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Michael Oberleitner, Martin Gattringer</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>A. Sitak</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/artem-sitak/sd23/overview</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>156 - 174</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1986/02/08</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>185 lbs (84kg)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Orenbourg, Russia</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Mason Fuller</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1D. Inglot</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/dominic-inglot/i200/overview</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>249 - 211</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1986/03/06</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>207 lbs (94kg)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>6'6" (198cm)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Great Britain</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>London, England</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Louis Cayer</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2D. Nestor</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/daniel-nestor/n210/overview</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1062 - 488</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1972/09/04</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>190 lbs (86kg)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Belgrade, Serbia</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Left-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>-11W. Koolhof</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/wesley-koolhof/kc41/overview</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>309 - 195</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>171 lbs (78kg)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>5'11" (180cm)</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Zevenaar, Netherlands</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Mariusz Fyrstenberg</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>(1989/04/17)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>-1F. Mergea</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/florin-mergea/mb27/overview</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>152 - 120</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1985/01/26</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>176 lbs (80kg)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>5'10" (178cm)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Craiova, Romania</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Daiana Mergea, Alex Pop-Moldovan, Stefan Pitian</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>H. Podlipnik-Castillo</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/hans-podlipnik-castillo/pb37/overview</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>38 - 55</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>172 lbs (78kg)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Santiago, Chile</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Roland Kvelstein</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>(1988/01/09)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>A. Vasilevski</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/andrei-vasilevski/v613/overview</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0 - 5</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1991/05/28</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>179 lbs (81kg)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Minsk, Belarus</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Aliaksandr Vasilevski</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>A. Shamasdin</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/adil-shamasdin/sb92/overview</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>77 - 108</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1982/05/23</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>160 lbs (73kg)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>5'11" (180cm)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Toronto, Canada</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Dave Marray</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>L. Paes</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/leander-paes/p269/overview</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>770 - 457</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1973/06/17</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>171 lbs (78kg)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>5'10" (178cm)</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Calcutta, India</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>S. Querrey</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/sam-querrey/q927/overview</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>385 - 330</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>1987/10/07</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>209 lbs (95kg)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>6'6" (198cm)</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>San Francisco, CA, USA</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Scott Doerner</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>T. Huey</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/treat-huey/h788/overview</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>9 - 7</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1985/08/28</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>180 lbs (82kg)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>5'10" (178cm)</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Washington, DC, USA</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Left-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Othmane Garma, Milo Johnson</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>R. Haase</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/robin-haase/h756/overview</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>234 - 273</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>170 lbs (77kg)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>The Hague, The Netherlands</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Raymond Knaap</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>38 (1987/04/06)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>N. Skupski</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/neal-skupski/sl22/overview</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>43 - 22</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>332 - 211</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>180 lbs (82kg)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Great Britain</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Liverpool, England</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Ken Skupski and Louis Cayer</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>35 (1989/12/01)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4R. Lindstedt</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/robert-lindstedt/l335/overview</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>441 - 375</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1977/03/19</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>198 lbs (90kg)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>6'3" (191cm)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Sundbyberg, Sweden</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>-1F. Verdasco</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/fernando-verdasco/v306/overview</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>559 - 447</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>198 lbs (90kg)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>6'2" (188cm)</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Madrid, Spain</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Left-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Diego Dinomo, David Sanchez, Quino Munoz</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>41 (1983/11/15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>-1P. Raja</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/purav-raja/r823/overview</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>1985/12/07</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>198 lbs (90kg)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Mumbai, India</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>-1J. Smith</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/john-patrick-smith/sj55/overview</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>21 - 19</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>119 - 148</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>185 lbs (84kg)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>6'2" (188cm)</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Townsville, Australia</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Left-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Kent Martino</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>36 (1989/01/24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1N. Kyrgios</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/nick-kyrgios/ke17/overview</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>1 - 4</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>206 - 118</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>187 lbs (85kg)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>6'4" (193cm)</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Canberra, Australia</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>30 (1995/04/27)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1G. Duran</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/guillermo-duran/d787/overview</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1 - 3</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>65 - 94</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>181 lbs (82kg)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>5'10" (178cm)</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Tucuman, Argentina</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Gaston Etlis</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>37 (1988/06/06)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1M. Polmans</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/marc-polmans/pg94/overview</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>6 - 17</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>172 lbs (78kg)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>6'2" (188cm)</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Amanzimtoti, South Africa</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Greg Polmans</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>28 (1997/05/02)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1B. McLachlan</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/ben-mclachlan/mo07/overview</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>130 - 150</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1992/05/10</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>176 lbs (80kg)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Queenstown, New Zealand</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Riki McLachlan, Lan Bale</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1A. Whittington</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/andrew-whittington/w630/overview</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2 - 3</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>1993/08/11</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>181 lbs (82kg)</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>6'2" (188cm)</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Williamstown, Australia</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2J. Knowle</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/julian-knowle/k263/overview</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>10 - 33</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>1974/04/29</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>165 lbs (75kg)</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>6'2" (188cm)</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Lauterach, Austria</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Left-Handed, Unknown Backhand</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Martin Gattringer</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>P. Petzschner</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/philipp-petzschner/p624/overview</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>177 - 173</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1984/03/24</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>170 lbs (77kg)</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Bayreuth, Germany</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Stefan Eriksson</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>-8S. Lipsky</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/scott-lipsky/l580/overview</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>1981/08/14</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>190 lbs (86kg)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Merrick, NY</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Rick Leach</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>G. Garcia-Lopez</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/guillermo-garcia-lopez/g476/overview</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>297 - 354</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>1983/06/04</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>176 lbs (80kg)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>La Roda (Albacete), Spain</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Juan Manuel Esparcia</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2A. Sancic</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/antonio-sancic/si06/overview</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1988/11/23</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>180 lbs (82kg)</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>5'11" (180cm)</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Brezice, Slovenia</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Marko Toic, Andrija Sancic</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2H. Nys</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/hugo-nys/n670/overview</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>35 - 22</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>192 - 171</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>176 lbs (80kg)</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Evian-les-Bains, France</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Guillaume Couillard, Kévin Blandy</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>34 (1991/02/16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>4A. Bolt</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/alex-bolt/bi81/overview</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0 - 2</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>17 - 33</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>156 lbs (71kg)</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Murray Bridge, Australia</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Left-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Rohan Williams</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>32 (1993/01/05)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>-2D. Marrero</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/david-marrero/m984/overview</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>247 - 216</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>196 lbs (89kg)</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Las Palmas, Spain</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>45 (1980/04/08)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>-4J. Erlich</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/jonathan-erlich/e152/overview</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>415 - 351</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>1977/04/05</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>171 lbs (78kg)</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>5'9" (175cm)</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Buenos Aires, Argentina</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Right-Handed, Unknown Backhand</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>4J. Cerretani</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/jamie-cerretani/c922/overview</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>95 - 164</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>177 lbs (80kg)</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Reading, MA, USA</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Left-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Andy Fitzell, Ettore Zito</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>44 (1981/10/02)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>-1P. Lorenzi</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/paolo-lorenzi/l503/overview</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>110 - 185</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>1981/12/15</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>172 lbs (78kg)</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Rome, Italy</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Pietro Griccioli</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>S. Groth</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/sam-groth/g940/overview</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>38 - 62</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>1987/10/19</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>220 lbs (100kg)</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>6'4" (193cm)</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Narrandera, Australia</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Billy Heiser</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>K. Skupski</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/ken-skupski/sc40/overview</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>141 - 162</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>1983/04/09</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>196 lbs (89kg)</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Great Britain</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Liverpool, England</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Left-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Louis Cayer, Sean Dunstan, Anthony Hardman</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1R. Dutra Silva</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/rogerio-dutra-silva/sc73/overview</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>30 - 65</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>1984/02/05</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>161 lbs (73kg)</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>5'10" (178cm)</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Sao Paulo, Brazil</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Andres Schneiter</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1J. Eysseric</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/jonathan-eysseric/e678/overview</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>1 - 2</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>27 - 58</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>176 lbs (80kg)</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>5'11" (180cm)</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Saint-Germain-En-Laye, France</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Left-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Nicolas Metairie, James Stevens</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>35 (1990/05/27)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2M. Elgin</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/mikhail-elgin/e180/overview</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2 - 9</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1981/10/14</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>172 lbs (78kg)</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>St. Petersburg, Russia</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>Right-Handed, Unknown Backhand</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Ilya Drozdov</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>-8A. Begemann</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/andre-begemann/ba79/overview</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>1984/07/12</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>198 lbs (90kg)</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>6'2" (188cm)</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Insta</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Lemgo, Germany</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Jochen Schlieker</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2M. Reid</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/matt-reid/r977/overview</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>35 - 56</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1990/07/17</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>192 lbs (87kg)</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>6'0" (183cm)</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Sydney, Australia</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>-2A. Sa</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/andre-sa/s604/overview</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>52 - 92</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1977/05/06</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>174 lbs (79kg)</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>6'1" (185cm)</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Belo Horizonte, Brazil</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Bruno Volkmann</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2B. Mousley</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/bradley-mousley/mn44/overview</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>1996/01/03</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>181 lbs (82kg)</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>6'2" (188cm)</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Modbury, South Australia</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Right-Handed, One-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Jack Reader and Craig Mousley</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>-2S. Ratiwatana</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/sanchai-ratiwatana/r518/overview</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>3 - 6</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>1982/01/23</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>154 lbs (70kg)</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>5'9" (175cm)</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Bangkok</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Right-Handed, Unknown Backhand</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Chatchai Ratiwatana</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1S. Arends</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/sander-arends/ac55/overview</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>25 - 20</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>82 - 91</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>204 lbs (93kg)</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>6'5" (196cm)</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Leeuwarden, Netherlands</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Stefan Bodde</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>34 (1991/08/09)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>-2F. Fognini</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/fabio-fognini/f510/overview</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>0 - 7</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>426 - 396</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>174 lbs (79kg)</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>5'10" (178cm)</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Sanremo, Italy</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Filippo Baldi</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>(1987/05/24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>8V. Troicki</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/viktor-troicki/t840/overview</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>294 - 273</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1986/02/10</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>189 lbs (86kg)</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>6'4" (193cm)</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Belgrade, Serbia</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Jack Reader</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>-1J. Isner</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.atptour.com/en/players/john-isner/i186/overview</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Australian Open</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2018-01-15</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>489 - 317</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>1985/04/26</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>238 lbs (108kg)</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>6'10" (208cm)</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Greensboro, NC, USA</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Right-Handed, Two-Handed Backhand</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Philip Farmer</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/atp/ranking_doubles_2018-01-15.xlsx
+++ b/data/atp/ranking_doubles_2018-01-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1001">
   <si>
     <t>Rank</t>
   </si>
@@ -997,31 +997,52 @@
     <t>1 - 3</t>
   </si>
   <si>
+    <t>1 - 4</t>
+  </si>
+  <si>
+    <t>1 - 1</t>
+  </si>
+  <si>
+    <t>4 - 1</t>
+  </si>
+  <si>
+    <t>5 - 2</t>
+  </si>
+  <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
+    <t>3 - 2</t>
+  </si>
+  <si>
+    <t>1 - 0</t>
+  </si>
+  <si>
+    <t>0 - 2</t>
+  </si>
+  <si>
+    <t>2 - 3</t>
+  </si>
+  <si>
+    <t>5 - 4</t>
+  </si>
+  <si>
+    <t>8 - 1</t>
+  </si>
+  <si>
+    <t>2 - 2</t>
+  </si>
+  <si>
+    <t>5 - 1</t>
+  </si>
+  <si>
+    <t>3 - 3</t>
+  </si>
+  <si>
     <t>0 - 1</t>
   </si>
   <si>
-    <t>4 - 1</t>
-  </si>
-  <si>
-    <t>4 - 2</t>
-  </si>
-  <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>2 - 2</t>
-  </si>
-  <si>
-    <t>3 - 2</t>
-  </si>
-  <si>
-    <t>2 - 3</t>
-  </si>
-  <si>
-    <t>8 - 1</t>
-  </si>
-  <si>
-    <t>5 - 1</t>
+    <t>0 - 4</t>
   </si>
   <si>
     <t>435 - 305</t>
@@ -1042,7 +1063,7 @@
     <t>472 - 308</t>
   </si>
   <si>
-    <t>546 - 418</t>
+    <t>546 - 419</t>
   </si>
   <si>
     <t>473 - 286</t>
@@ -1054,7 +1075,7 @@
     <t>545 - 324</t>
   </si>
   <si>
-    <t>240 - 110</t>
+    <t>241 - 110</t>
   </si>
   <si>
     <t>1109 - 359</t>
@@ -1069,7 +1090,7 @@
     <t>377 - 257</t>
   </si>
   <si>
-    <t>516 - 254</t>
+    <t>517 - 254</t>
   </si>
   <si>
     <t>457 - 353</t>
@@ -1114,19 +1135,19 @@
     <t>154 - 214</t>
   </si>
   <si>
-    <t>365 - 211</t>
-  </si>
-  <si>
-    <t>394 - 359</t>
+    <t>366 - 211</t>
+  </si>
+  <si>
+    <t>395 - 359</t>
   </si>
   <si>
     <t>404 - 232</t>
   </si>
   <si>
-    <t>238 - 231</t>
-  </si>
-  <si>
-    <t>161 - 187</t>
+    <t>238 - 232</t>
+  </si>
+  <si>
+    <t>161 - 188</t>
   </si>
   <si>
     <t>239 - 221</t>
@@ -1213,7 +1234,7 @@
     <t>192 - 173</t>
   </si>
   <si>
-    <t>246 - 261</t>
+    <t>249 - 262</t>
   </si>
   <si>
     <t>346 - 215</t>
@@ -1261,7 +1282,7 @@
     <t>23 - 35</t>
   </si>
   <si>
-    <t>197 - 177</t>
+    <t>198 - 177</t>
   </si>
   <si>
     <t>16 - 21</t>
@@ -1291,6 +1312,9 @@
     <t>27 - 58</t>
   </si>
   <si>
+    <t>63 - 93</t>
+  </si>
+  <si>
     <t>106 - 127</t>
   </si>
   <si>
@@ -1306,7 +1330,7 @@
     <t>62 - 78</t>
   </si>
   <si>
-    <t>85 - 98</t>
+    <t>85 - 99</t>
   </si>
   <si>
     <t>224 - 221</t>
@@ -1477,6 +1501,9 @@
     <t>1984/02/05</t>
   </si>
   <si>
+    <t>1981/10/14</t>
+  </si>
+  <si>
     <t>1984/07/12</t>
   </si>
   <si>
@@ -2083,6 +2110,9 @@
     <t>Saint-Germain-En-Laye, France</t>
   </si>
   <si>
+    <t>St. Petersburg, Russia</t>
+  </si>
+  <si>
     <t>Lemgo, Germany</t>
   </si>
   <si>
@@ -2341,6 +2371,9 @@
     <t>Nicolas Metairie, James Stevens</t>
   </si>
   <si>
+    <t>Ilya Drozdov</t>
+  </si>
+  <si>
     <t>Jochen Schlieker</t>
   </si>
   <si>
@@ -2611,6 +2644,9 @@
     <t>2013.06.10</t>
   </si>
   <si>
+    <t>2009.07.06</t>
+  </si>
+  <si>
     <t>2010.07.05</t>
   </si>
   <si>
@@ -2749,7 +2785,7 @@
     <t>8-23</t>
   </si>
   <si>
-    <t>285-236</t>
+    <t>286-237</t>
   </si>
   <si>
     <t>20-40</t>
@@ -2824,9 +2860,6 @@
     <t>297-354</t>
   </si>
   <si>
-    <t>1-1</t>
-  </si>
-  <si>
     <t>17-33</t>
   </si>
   <si>
@@ -2843,6 +2876,9 @@
   </si>
   <si>
     <t>30-65</t>
+  </si>
+  <si>
+    <t>2-9</t>
   </si>
   <si>
     <t>52-92</t>
@@ -3458,49 +3494,49 @@
         <v>324</v>
       </c>
       <c r="I2" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="J2" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K2" t="s">
         <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="M2" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="N2" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O2" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P2" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q2" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="R2" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="S2" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T2" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="U2">
         <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>783</v>
+        <v>794</v>
       </c>
       <c r="W2" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -3532,52 +3568,52 @@
         <v>325</v>
       </c>
       <c r="I3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="J3" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K3" t="s">
         <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="N3" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="O3" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="P3" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q3" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="R3" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="S3" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T3" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="U3">
         <v>273</v>
       </c>
       <c r="V3" t="s">
-        <v>784</v>
+        <v>795</v>
       </c>
       <c r="W3" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -3606,46 +3642,46 @@
         <v>324</v>
       </c>
       <c r="I4" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="J4" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K4" t="s">
         <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="M4" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="N4" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O4" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P4" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q4" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="R4" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="S4" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="U4">
         <v>220</v>
       </c>
       <c r="V4" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
       <c r="W4" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -3677,52 +3713,52 @@
         <v>326</v>
       </c>
       <c r="I5" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="J5" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K5" t="s">
         <v>51</v>
       </c>
       <c r="M5" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="N5" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O5" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="P5" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q5" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="R5" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="S5" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T5" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="U5">
         <v>456</v>
       </c>
       <c r="V5" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
       <c r="W5" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -3751,52 +3787,52 @@
         <v>324</v>
       </c>
       <c r="I6" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="J6" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K6" t="s">
         <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="N6" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O6" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="P6" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q6" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="R6" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="S6" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T6" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="U6">
         <v>29</v>
       </c>
       <c r="V6" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
       <c r="W6" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -3825,52 +3861,52 @@
         <v>324</v>
       </c>
       <c r="I7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="J7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K7" t="s">
         <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="N7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="P7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="R7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="S7" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="U7">
         <v>37</v>
       </c>
       <c r="V7" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="W7" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="X7">
         <v>4</v>
       </c>
       <c r="Y7" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -3896,55 +3932,55 @@
         <v>323</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I8" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="J8" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K8" t="s">
         <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="N8" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O8" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P8" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q8" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="R8" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="S8" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T8" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="U8">
         <v>218</v>
       </c>
       <c r="V8" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
       <c r="W8" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -3973,46 +4009,46 @@
         <v>324</v>
       </c>
       <c r="I9" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="J9" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K9" t="s">
         <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M9" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="N9" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="O9" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P9" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q9" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="R9" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="S9" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="U9">
         <v>326</v>
       </c>
       <c r="V9" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="W9" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -4044,52 +4080,52 @@
         <v>324</v>
       </c>
       <c r="I10" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="J10" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K10" t="s">
         <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="N10" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O10" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="P10" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="Q10" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="R10" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="S10" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="T10" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="U10">
         <v>834</v>
       </c>
       <c r="V10" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
       <c r="W10" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -4118,49 +4154,49 @@
         <v>324</v>
       </c>
       <c r="I11" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="J11" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K11" t="s">
         <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="M11" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="N11" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="O11" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="P11" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q11" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="R11" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="S11" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T11" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="U11">
         <v>221</v>
       </c>
       <c r="V11" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
       <c r="W11" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -4189,55 +4225,55 @@
         <v>323</v>
       </c>
       <c r="H12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I12" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="J12" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K12" t="s">
         <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="N12" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O12" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="P12" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q12" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="R12" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="S12" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T12" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="U12">
         <v>36</v>
       </c>
       <c r="V12" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
       <c r="W12" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -4266,49 +4302,49 @@
         <v>324</v>
       </c>
       <c r="I13" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="J13" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K13" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="L13" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="M13" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="N13" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="O13" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="P13" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q13" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="R13" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="S13" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="T13" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="U13">
         <v>116</v>
       </c>
       <c r="V13" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
       <c r="W13" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -4340,49 +4376,49 @@
         <v>324</v>
       </c>
       <c r="I14" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="J14" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K14" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="L14" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="M14" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="N14" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O14" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="P14" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q14" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="R14" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="S14" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T14" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="U14">
         <v>246</v>
       </c>
       <c r="V14" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
       <c r="W14" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -4411,55 +4447,55 @@
         <v>323</v>
       </c>
       <c r="H15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I15" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="J15" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K15" t="s">
         <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="N15" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O15" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P15" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q15" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="R15" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="S15" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T15" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="U15">
         <v>19</v>
       </c>
       <c r="V15" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="W15" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="X15">
         <v>4</v>
       </c>
       <c r="Y15" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -4488,52 +4524,52 @@
         <v>324</v>
       </c>
       <c r="I16" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="J16" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K16" t="s">
         <v>46</v>
       </c>
       <c r="M16" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="N16" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O16" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="P16" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q16" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="R16" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="S16" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T16" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="U16">
         <v>274</v>
       </c>
       <c r="V16" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="W16" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -4559,55 +4595,55 @@
         <v>323</v>
       </c>
       <c r="H17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I17" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="J17" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K17" t="s">
         <v>63</v>
       </c>
       <c r="M17" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="N17" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O17" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="P17" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q17" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="R17" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="S17" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="T17" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="U17">
         <v>295</v>
       </c>
       <c r="V17" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="W17" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -4636,49 +4672,49 @@
         <v>324</v>
       </c>
       <c r="I18" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="J18" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K18" t="s">
         <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M18" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="N18" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O18" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="P18" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q18" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="R18" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="S18" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T18" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="U18">
         <v>82</v>
       </c>
       <c r="V18" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
       <c r="W18" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -4710,49 +4746,49 @@
         <v>324</v>
       </c>
       <c r="I19" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="J19" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K19" t="s">
         <v>26</v>
       </c>
       <c r="L19" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M19" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="N19" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O19" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="P19" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q19" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="R19" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="S19" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T19" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="U19">
         <v>40</v>
       </c>
       <c r="V19" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="W19" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="X19">
         <v>1</v>
@@ -4784,52 +4820,52 @@
         <v>324</v>
       </c>
       <c r="I20" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="J20" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
       </c>
       <c r="M20" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="N20" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="O20" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P20" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q20" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="R20" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="S20" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T20" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="U20">
         <v>213</v>
       </c>
       <c r="V20" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="W20" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -4858,46 +4894,46 @@
         <v>324</v>
       </c>
       <c r="I21" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="J21" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K21" t="s">
         <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M21" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="N21" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="O21" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="P21" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q21" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="R21" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="S21" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="U21">
         <v>106</v>
       </c>
       <c r="V21" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="W21" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -4929,49 +4965,49 @@
         <v>324</v>
       </c>
       <c r="I22" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="J22" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K22" t="s">
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="M22" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="N22" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="O22" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="P22" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q22" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="R22" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="S22" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T22" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="U22">
         <v>19</v>
       </c>
       <c r="V22" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="W22" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="X22">
         <v>6</v>
@@ -5000,55 +5036,55 @@
         <v>323</v>
       </c>
       <c r="H23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I23" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="J23" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K23" t="s">
         <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="N23" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="O23" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="P23" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q23" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="R23" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="S23" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T23" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="U23">
         <v>56</v>
       </c>
       <c r="V23" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="W23" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="X23">
         <v>2</v>
       </c>
       <c r="Y23" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -5077,49 +5113,49 @@
         <v>324</v>
       </c>
       <c r="I24" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="J24" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K24" t="s">
         <v>41</v>
       </c>
       <c r="L24" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="M24" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="N24" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O24" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="P24" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q24" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="R24" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="S24" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T24" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="U24">
         <v>184</v>
       </c>
       <c r="V24" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
       <c r="W24" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -5151,46 +5187,46 @@
         <v>324</v>
       </c>
       <c r="I25" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="J25" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K25" t="s">
         <v>28</v>
       </c>
       <c r="L25" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="M25" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="N25" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O25" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="P25" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q25" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="R25" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="S25" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="U25">
         <v>12</v>
       </c>
       <c r="V25" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
       <c r="W25" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
       <c r="X25">
         <v>7</v>
@@ -5222,49 +5258,49 @@
         <v>324</v>
       </c>
       <c r="I26" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="J26" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K26" t="s">
         <v>40</v>
       </c>
       <c r="L26" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="M26" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="N26" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="O26" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P26" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q26" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="R26" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="S26" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T26" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="U26">
         <v>208</v>
       </c>
       <c r="V26" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="W26" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -5293,55 +5329,55 @@
         <v>323</v>
       </c>
       <c r="H27" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I27" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="J27" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K27" t="s">
         <v>50</v>
       </c>
       <c r="M27" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="N27" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O27" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P27" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q27" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="R27" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="S27" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T27" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="U27">
         <v>35</v>
       </c>
       <c r="V27" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="W27" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -5370,49 +5406,49 @@
         <v>324</v>
       </c>
       <c r="I28" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="J28" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K28" t="s">
         <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="M28" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="N28" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="O28" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="P28" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q28" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="R28" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="S28" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T28" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="U28">
         <v>163</v>
       </c>
       <c r="V28" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="W28" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -5444,52 +5480,52 @@
         <v>326</v>
       </c>
       <c r="I29" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="J29" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
       </c>
       <c r="M29" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="N29" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O29" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="P29" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q29" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="R29" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="S29" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T29" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="U29">
         <v>155</v>
       </c>
       <c r="V29" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
       <c r="W29" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -5518,43 +5554,43 @@
         <v>324</v>
       </c>
       <c r="I30" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="J30" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K30" t="s">
         <v>28</v>
       </c>
       <c r="L30" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M30" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="N30" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="Q30" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="R30" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="S30" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T30" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="U30">
         <v>212</v>
       </c>
       <c r="V30" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="W30" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -5586,49 +5622,49 @@
         <v>324</v>
       </c>
       <c r="I31" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="J31" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K31" t="s">
         <v>26</v>
       </c>
       <c r="L31" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M31" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="N31" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="O31" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="P31" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q31" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="R31" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="S31" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T31" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="U31">
         <v>253</v>
       </c>
       <c r="V31" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="W31" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -5657,55 +5693,55 @@
         <v>323</v>
       </c>
       <c r="H32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I32" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="J32" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K32" t="s">
         <v>53</v>
       </c>
       <c r="M32" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="N32" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O32" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P32" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q32" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="R32" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="S32" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T32" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="U32">
         <v>213</v>
       </c>
       <c r="V32" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
       <c r="W32" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="X32">
         <v>0</v>
       </c>
       <c r="Y32" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -5731,55 +5767,55 @@
         <v>323</v>
       </c>
       <c r="H33" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="I33" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="J33" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K33" t="s">
         <v>39</v>
       </c>
       <c r="M33" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="N33" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O33" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="P33" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q33" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="R33" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="S33" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T33" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="U33">
         <v>125</v>
       </c>
       <c r="V33" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="W33" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
       <c r="Y33" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -5805,55 +5841,55 @@
         <v>323</v>
       </c>
       <c r="H34" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I34" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="J34" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K34" t="s">
         <v>48</v>
       </c>
       <c r="M34" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="N34" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O34" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P34" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q34" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="R34" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="S34" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="T34" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="U34">
         <v>39</v>
       </c>
       <c r="V34" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="W34" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="X34">
         <v>1</v>
       </c>
       <c r="Y34" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -5879,55 +5915,55 @@
         <v>323</v>
       </c>
       <c r="H35" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="I35" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="J35" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K35" t="s">
         <v>30</v>
       </c>
       <c r="M35" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="N35" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="O35" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="P35" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q35" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="R35" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="S35" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T35" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="U35">
         <v>228</v>
       </c>
       <c r="V35" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
       <c r="W35" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="X35">
         <v>0</v>
       </c>
       <c r="Y35" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -5953,55 +5989,55 @@
         <v>323</v>
       </c>
       <c r="H36" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="I36" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="J36" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K36" t="s">
         <v>27</v>
       </c>
       <c r="M36" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="N36" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="O36" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="P36" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q36" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="R36" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="S36" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T36" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="U36">
         <v>232</v>
       </c>
       <c r="V36" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="W36" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="X36">
         <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -6030,52 +6066,52 @@
         <v>324</v>
       </c>
       <c r="I37" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="J37" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K37" t="s">
         <v>35</v>
       </c>
       <c r="M37" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="N37" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O37" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P37" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q37" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="R37" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="S37" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T37" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="U37">
         <v>197</v>
       </c>
       <c r="V37" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="W37" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
       <c r="Y37" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -6104,49 +6140,49 @@
         <v>324</v>
       </c>
       <c r="I38" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="J38" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K38" t="s">
         <v>75</v>
       </c>
       <c r="L38" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M38" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="N38" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O38" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="P38" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q38" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="R38" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="S38" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T38" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="U38">
         <v>176</v>
       </c>
       <c r="V38" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="W38" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -6178,49 +6214,49 @@
         <v>324</v>
       </c>
       <c r="I39" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="J39" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K39" t="s">
         <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M39" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="N39" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O39" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P39" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q39" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="R39" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="S39" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T39" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="U39">
         <v>500</v>
       </c>
       <c r="V39" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="W39" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -6252,49 +6288,49 @@
         <v>324</v>
       </c>
       <c r="I40" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="J40" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K40" t="s">
         <v>73</v>
       </c>
       <c r="M40" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="N40" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="O40" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="P40" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="R40" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="S40" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T40" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="U40">
         <v>18</v>
       </c>
       <c r="V40" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="W40" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="X40">
         <v>1</v>
       </c>
       <c r="Y40" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -6323,49 +6359,49 @@
         <v>324</v>
       </c>
       <c r="I41" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="J41" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K41" t="s">
         <v>38</v>
       </c>
       <c r="M41" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="N41" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O41" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="P41" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q41" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="R41" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="S41" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="U41">
         <v>8</v>
       </c>
       <c r="V41" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="W41" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="X41">
         <v>4</v>
       </c>
       <c r="Y41" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -6394,46 +6430,46 @@
         <v>324</v>
       </c>
       <c r="I42" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="J42" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K42" t="s">
         <v>28</v>
       </c>
       <c r="L42" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="M42" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="N42" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="P42" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q42" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="R42" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="S42" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T42" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="U42">
         <v>145</v>
       </c>
       <c r="V42" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="W42" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -6465,52 +6501,52 @@
         <v>324</v>
       </c>
       <c r="I43" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="J43" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K43" t="s">
         <v>26</v>
       </c>
       <c r="M43" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="N43" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O43" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="P43" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q43" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="R43" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="S43" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T43" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="U43">
         <v>10</v>
       </c>
       <c r="V43" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="W43" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="X43">
         <v>7</v>
       </c>
       <c r="Y43" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -6539,49 +6575,49 @@
         <v>324</v>
       </c>
       <c r="I44" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K44" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L44" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="M44" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="N44" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O44" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P44" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q44" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="R44" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="S44" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T44" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="U44">
         <v>52</v>
       </c>
       <c r="V44" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="W44" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="X44">
         <v>0</v>
@@ -6613,49 +6649,49 @@
         <v>324</v>
       </c>
       <c r="I45" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="J45" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K45" t="s">
         <v>33</v>
       </c>
       <c r="L45" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="M45" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="N45" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="O45" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="P45" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q45" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="R45" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="S45" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T45" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="U45">
         <v>206</v>
       </c>
       <c r="V45" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="W45" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -6687,52 +6723,52 @@
         <v>324</v>
       </c>
       <c r="I46" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="J46" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K46" t="s">
         <v>320</v>
       </c>
       <c r="M46" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="N46" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O46" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="P46" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q46" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="R46" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="S46" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T46" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="U46">
         <v>25</v>
       </c>
       <c r="V46" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="W46" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="X46">
         <v>0</v>
       </c>
       <c r="Y46" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -6761,49 +6797,49 @@
         <v>324</v>
       </c>
       <c r="I47" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="J47" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K47" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L47" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="M47" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="N47" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O47" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="P47" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q47" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="R47" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="S47" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="T47" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="U47">
         <v>38</v>
       </c>
       <c r="V47" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="W47" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -6835,46 +6871,46 @@
         <v>324</v>
       </c>
       <c r="I48" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="J48" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K48" t="s">
         <v>38</v>
       </c>
       <c r="L48" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="M48" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="N48" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O48" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="Q48" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="R48" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="S48" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T48" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="U48">
         <v>647</v>
       </c>
       <c r="V48" t="s">
-        <v>826</v>
+        <v>837</v>
       </c>
       <c r="W48" t="s">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -6906,46 +6942,46 @@
         <v>324</v>
       </c>
       <c r="I49" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="J49" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K49" t="s">
         <v>27</v>
       </c>
       <c r="M49" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="N49" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="P49" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q49" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="R49" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="S49" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="U49">
         <v>438</v>
       </c>
       <c r="V49" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="W49" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X49">
         <v>0</v>
       </c>
       <c r="Y49" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -6974,52 +7010,52 @@
         <v>332</v>
       </c>
       <c r="I50" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="J50" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K50" t="s">
         <v>39</v>
       </c>
       <c r="M50" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="N50" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="O50" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="P50" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q50" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="R50" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="S50" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T50" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="U50">
         <v>181</v>
       </c>
       <c r="V50" t="s">
-        <v>828</v>
+        <v>839</v>
       </c>
       <c r="W50" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="X50">
         <v>0</v>
       </c>
       <c r="Y50" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -7048,49 +7084,49 @@
         <v>324</v>
       </c>
       <c r="I51" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="J51" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K51" t="s">
         <v>26</v>
       </c>
       <c r="L51" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="M51" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="N51" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O51" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="P51" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q51" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="R51" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="S51" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="T51" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="U51">
         <v>25</v>
       </c>
       <c r="V51" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="W51" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="X51">
         <v>1</v>
@@ -7122,49 +7158,49 @@
         <v>324</v>
       </c>
       <c r="I52" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="J52" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K52" t="s">
         <v>26</v>
       </c>
       <c r="L52" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M52" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="N52" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O52" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="P52" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q52" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="R52" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="S52" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T52" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="U52">
         <v>297</v>
       </c>
       <c r="V52" t="s">
-        <v>830</v>
+        <v>841</v>
       </c>
       <c r="W52" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -7196,49 +7232,49 @@
         <v>324</v>
       </c>
       <c r="I53" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="J53" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K53" t="s">
         <v>38</v>
       </c>
       <c r="L53" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="M53" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="N53" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O53" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="P53" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q53" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="R53" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="S53" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T53" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="U53">
         <v>92</v>
       </c>
       <c r="V53" t="s">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="W53" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -7270,46 +7306,46 @@
         <v>324</v>
       </c>
       <c r="I54" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="J54" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K54" t="s">
         <v>27</v>
       </c>
       <c r="L54" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="M54" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="N54" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O54" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="Q54" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="R54" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="S54" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T54" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="U54">
         <v>299</v>
       </c>
       <c r="V54" t="s">
-        <v>832</v>
+        <v>843</v>
       </c>
       <c r="W54" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -7341,46 +7377,46 @@
         <v>324</v>
       </c>
       <c r="I55" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="J55" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K55" t="s">
         <v>35</v>
       </c>
       <c r="L55" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="M55" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="N55" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="P55" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q55" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="R55" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="S55" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T55" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="U55">
         <v>561</v>
       </c>
       <c r="V55" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="W55" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -7412,46 +7448,46 @@
         <v>324</v>
       </c>
       <c r="I56" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="J56" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K56" t="s">
         <v>112</v>
       </c>
       <c r="L56" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="M56" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="N56" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O56" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="P56" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q56" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="R56" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="S56" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="U56">
         <v>58</v>
       </c>
       <c r="V56" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="W56" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="X56">
         <v>0</v>
@@ -7483,52 +7519,52 @@
         <v>324</v>
       </c>
       <c r="I57" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="J57" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K57" t="s">
         <v>42</v>
       </c>
       <c r="M57" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="N57" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="O57" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P57" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q57" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="R57" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="S57" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T57" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="U57">
         <v>462</v>
       </c>
       <c r="V57" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
       <c r="W57" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X57">
         <v>0</v>
       </c>
       <c r="Y57" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -7557,49 +7593,49 @@
         <v>324</v>
       </c>
       <c r="I58" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="J58" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K58" t="s">
         <v>29</v>
       </c>
       <c r="L58" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="M58" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="N58" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="O58" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P58" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q58" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="R58" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="S58" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T58" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="U58">
         <v>243</v>
       </c>
       <c r="V58" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="W58" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="X58">
         <v>0</v>
@@ -7631,52 +7667,52 @@
         <v>324</v>
       </c>
       <c r="I59" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="J59" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K59" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="M59" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="N59" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O59" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="P59" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q59" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="R59" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="S59" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T59" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="U59">
         <v>157</v>
       </c>
       <c r="V59" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="W59" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="X59">
         <v>0</v>
       </c>
       <c r="Y59" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -7705,46 +7741,46 @@
         <v>324</v>
       </c>
       <c r="I60" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="J60" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K60" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L60" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="M60" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="N60" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O60" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="P60" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="R60" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="S60" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T60" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="U60">
         <v>569</v>
       </c>
       <c r="V60" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="W60" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
       <c r="X60">
         <v>0</v>
@@ -7776,46 +7812,46 @@
         <v>324</v>
       </c>
       <c r="I61" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="J61" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K61" t="s">
         <v>25</v>
       </c>
       <c r="L61" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M61" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="N61" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="O61" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="Q61" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="R61" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="S61" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T61" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="U61">
         <v>748</v>
       </c>
       <c r="V61" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="W61" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X61">
         <v>0</v>
@@ -7847,46 +7883,46 @@
         <v>324</v>
       </c>
       <c r="I62" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="J62" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K62" t="s">
         <v>75</v>
       </c>
       <c r="L62" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="M62" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="N62" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="O62" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="P62" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q62" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="R62" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="S62" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="U62">
         <v>73</v>
       </c>
       <c r="V62" t="s">
-        <v>840</v>
+        <v>851</v>
       </c>
       <c r="W62" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="X62">
         <v>1</v>
@@ -7918,49 +7954,49 @@
         <v>324</v>
       </c>
       <c r="I63" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="J63" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K63" t="s">
         <v>27</v>
       </c>
       <c r="L63" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M63" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="N63" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="O63" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="P63" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q63" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="R63" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="S63" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T63" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="U63">
         <v>11</v>
       </c>
       <c r="V63" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="W63" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="X63">
         <v>10</v>
@@ -7992,49 +8028,49 @@
         <v>324</v>
       </c>
       <c r="I64" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="J64" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K64" t="s">
         <v>30</v>
       </c>
       <c r="L64" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="M64" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="N64" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="O64" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P64" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q64" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="R64" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="S64" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="T64" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="U64">
         <v>689</v>
       </c>
       <c r="V64" t="s">
-        <v>842</v>
+        <v>853</v>
       </c>
       <c r="W64" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="X64">
         <v>0</v>
@@ -8063,55 +8099,55 @@
         <v>323</v>
       </c>
       <c r="H65" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="I65" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="J65" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K65" t="s">
         <v>32</v>
       </c>
       <c r="M65" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="N65" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O65" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="P65" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q65" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="R65" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="S65" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T65" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="U65">
         <v>33</v>
       </c>
       <c r="V65" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="W65" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="X65">
         <v>2</v>
       </c>
       <c r="Y65" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -8137,55 +8173,55 @@
         <v>323</v>
       </c>
       <c r="H66" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I66" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="J66" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="K66" t="s">
         <v>39</v>
       </c>
       <c r="M66" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="N66" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O66" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="P66" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q66" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="R66" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="S66" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T66" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="U66">
         <v>932</v>
       </c>
       <c r="V66" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="W66" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X66">
         <v>0</v>
       </c>
       <c r="Y66" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -8214,46 +8250,46 @@
         <v>324</v>
       </c>
       <c r="I67" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="J67" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K67" t="s">
         <v>44</v>
       </c>
       <c r="L67" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="M67" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="N67" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="O67" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="P67" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q67" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="R67" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="S67" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="U67">
         <v>309</v>
       </c>
       <c r="V67" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="W67" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="X67">
         <v>0</v>
@@ -8285,52 +8321,52 @@
         <v>324</v>
       </c>
       <c r="I68" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="J68" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K68" t="s">
         <v>30</v>
       </c>
       <c r="M68" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="N68" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O68" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="P68" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q68" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="R68" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="S68" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="T68" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="U68">
         <v>7</v>
       </c>
       <c r="V68" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="W68" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="X68">
         <v>7</v>
       </c>
       <c r="Y68" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -8359,43 +8395,43 @@
         <v>324</v>
       </c>
       <c r="I69" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="J69" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K69" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L69" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="M69" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="N69" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O69" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="Q69" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="R69" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="S69" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="U69">
         <v>813</v>
       </c>
       <c r="V69" t="s">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="W69" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="X69">
         <v>0</v>
@@ -8424,55 +8460,55 @@
         <v>323</v>
       </c>
       <c r="H70" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="I70" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="J70" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K70" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="M70" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="N70" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O70" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="P70" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q70" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="R70" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="S70" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="T70" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="U70">
         <v>108</v>
       </c>
       <c r="V70" t="s">
-        <v>847</v>
+        <v>858</v>
       </c>
       <c r="W70" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="X70">
         <v>0</v>
       </c>
       <c r="Y70" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -8498,52 +8534,52 @@
         <v>323</v>
       </c>
       <c r="H71" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I71" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="J71" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K71" t="s">
         <v>26</v>
       </c>
       <c r="M71" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="N71" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="O71" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="P71" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q71" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="R71" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="S71" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="U71">
         <v>13</v>
       </c>
       <c r="V71" t="s">
-        <v>848</v>
+        <v>859</v>
       </c>
       <c r="W71" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="X71">
         <v>7</v>
       </c>
       <c r="Y71" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -8572,52 +8608,52 @@
         <v>324</v>
       </c>
       <c r="I72" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="J72" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K72" t="s">
         <v>26</v>
       </c>
       <c r="M72" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="N72" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="O72" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="P72" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q72" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="R72" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="S72" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T72" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="U72">
         <v>385</v>
       </c>
       <c r="V72" t="s">
-        <v>849</v>
+        <v>860</v>
       </c>
       <c r="W72" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X72">
         <v>0</v>
       </c>
       <c r="Y72" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -8643,55 +8679,55 @@
         <v>323</v>
       </c>
       <c r="H73" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I73" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="J73" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K73" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M73" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="N73" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O73" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="P73" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q73" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="R73" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="S73" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T73" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="U73">
         <v>116</v>
       </c>
       <c r="V73" t="s">
-        <v>850</v>
+        <v>861</v>
       </c>
       <c r="W73" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="X73">
         <v>0</v>
       </c>
       <c r="Y73" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -8720,46 +8756,46 @@
         <v>324</v>
       </c>
       <c r="I74" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="J74" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K74" t="s">
         <v>29</v>
       </c>
       <c r="L74" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="M74" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="N74" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O74" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="Q74" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="R74" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="S74" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T74" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="U74">
         <v>729</v>
       </c>
       <c r="V74" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="W74" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X74">
         <v>0</v>
@@ -8791,43 +8827,43 @@
         <v>324</v>
       </c>
       <c r="I75" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="J75" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K75" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L75" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="M75" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="N75" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="P75" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q75" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="R75" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="S75" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="U75">
         <v>160</v>
       </c>
       <c r="V75" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="W75" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="X75">
         <v>0</v>
@@ -8859,49 +8895,49 @@
         <v>324</v>
       </c>
       <c r="I76" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="J76" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K76" t="s">
         <v>40</v>
       </c>
       <c r="L76" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M76" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="N76" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O76" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="P76" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q76" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="R76" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="S76" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="T76" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="U76">
         <v>86</v>
       </c>
       <c r="V76" t="s">
-        <v>853</v>
+        <v>864</v>
       </c>
       <c r="W76" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="X76">
         <v>0</v>
@@ -8933,49 +8969,49 @@
         <v>324</v>
       </c>
       <c r="I77" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="J77" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K77" t="s">
         <v>30</v>
       </c>
       <c r="L77" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="M77" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="N77" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O77" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="P77" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q77" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="R77" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="S77" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T77" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="U77">
         <v>35</v>
       </c>
       <c r="V77" t="s">
-        <v>854</v>
+        <v>865</v>
       </c>
       <c r="W77" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="X77">
         <v>1</v>
@@ -9007,49 +9043,49 @@
         <v>324</v>
       </c>
       <c r="I78" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="J78" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K78" t="s">
         <v>37</v>
       </c>
       <c r="L78" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="M78" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="N78" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O78" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P78" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q78" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="R78" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="S78" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T78" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="U78">
         <v>315</v>
       </c>
       <c r="V78" t="s">
-        <v>855</v>
+        <v>866</v>
       </c>
       <c r="W78" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="X78">
         <v>0</v>
@@ -9081,49 +9117,49 @@
         <v>324</v>
       </c>
       <c r="I79" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="J79" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K79" t="s">
         <v>25</v>
       </c>
       <c r="L79" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="M79" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="N79" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O79" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="P79" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q79" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="R79" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="S79" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T79" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="U79">
         <v>23</v>
       </c>
       <c r="V79" t="s">
-        <v>856</v>
+        <v>867</v>
       </c>
       <c r="W79" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="X79">
         <v>5</v>
@@ -9155,46 +9191,46 @@
         <v>324</v>
       </c>
       <c r="I80" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="J80" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K80" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L80" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="M80" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="N80" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="O80" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="Q80" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="R80" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="S80" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T80" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="U80">
         <v>362</v>
       </c>
       <c r="V80" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="W80" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X80">
         <v>0</v>
@@ -9223,55 +9259,55 @@
         <v>323</v>
       </c>
       <c r="H81" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="I81" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="J81" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K81" t="s">
         <v>30</v>
       </c>
       <c r="M81" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="N81" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O81" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="P81" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q81" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="R81" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="S81" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T81" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="U81">
         <v>327</v>
       </c>
       <c r="V81" t="s">
-        <v>857</v>
+        <v>868</v>
       </c>
       <c r="W81" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
       <c r="X81">
         <v>0</v>
       </c>
       <c r="Y81" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -9297,55 +9333,55 @@
         <v>323</v>
       </c>
       <c r="H82" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="I82" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="J82" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K82" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M82" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="N82" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O82" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="P82" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q82" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="R82" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="S82" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="T82" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="U82">
         <v>125</v>
       </c>
       <c r="V82" t="s">
-        <v>858</v>
+        <v>869</v>
       </c>
       <c r="W82" t="s">
-        <v>937</v>
+        <v>948</v>
       </c>
       <c r="X82">
         <v>0</v>
       </c>
       <c r="Y82" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -9374,49 +9410,49 @@
         <v>324</v>
       </c>
       <c r="I83" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="J83" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K83" t="s">
         <v>35</v>
       </c>
       <c r="M83" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="N83" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O83" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="P83" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q83" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="R83" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="S83" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="U83">
         <v>143</v>
       </c>
       <c r="V83" t="s">
-        <v>859</v>
+        <v>870</v>
       </c>
       <c r="W83" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="X83">
         <v>0</v>
       </c>
       <c r="Y83" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -9445,46 +9481,46 @@
         <v>324</v>
       </c>
       <c r="I84" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="J84" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K84" t="s">
         <v>43</v>
       </c>
       <c r="L84" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M84" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="N84" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="O84" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="P84" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q84" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="R84" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="S84" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="U84">
         <v>292</v>
       </c>
       <c r="V84" t="s">
-        <v>860</v>
+        <v>871</v>
       </c>
       <c r="W84" t="s">
-        <v>939</v>
+        <v>950</v>
       </c>
       <c r="X84">
         <v>0</v>
@@ -9516,52 +9552,52 @@
         <v>324</v>
       </c>
       <c r="I85" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="J85" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K85" t="s">
         <v>26</v>
       </c>
       <c r="M85" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="N85" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O85" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="P85" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q85" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="R85" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="S85" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="T85" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="U85">
         <v>620</v>
       </c>
       <c r="V85" t="s">
-        <v>861</v>
+        <v>872</v>
       </c>
       <c r="W85" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X85">
         <v>0</v>
       </c>
       <c r="Y85" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -9590,49 +9626,49 @@
         <v>324</v>
       </c>
       <c r="I86" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="J86" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K86" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L86" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="M86" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="N86" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O86" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P86" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q86" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="R86" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="S86" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T86" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="U86">
         <v>33</v>
       </c>
       <c r="V86" t="s">
-        <v>862</v>
+        <v>873</v>
       </c>
       <c r="W86" t="s">
-        <v>940</v>
+        <v>951</v>
       </c>
       <c r="X86">
         <v>1</v>
@@ -9664,49 +9700,49 @@
         <v>324</v>
       </c>
       <c r="I87" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="J87" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K87" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L87" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="M87" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="N87" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="O87" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="P87" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q87" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="R87" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="S87" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T87" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="U87">
         <v>53</v>
       </c>
       <c r="V87" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="W87" t="s">
-        <v>941</v>
+        <v>952</v>
       </c>
       <c r="X87">
         <v>0</v>
@@ -9738,46 +9774,46 @@
         <v>324</v>
       </c>
       <c r="I88" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="J88" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K88" t="s">
         <v>29</v>
       </c>
       <c r="L88" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="M88" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="N88" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O88" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="Q88" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="R88" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="S88" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="T88" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="U88">
         <v>527</v>
       </c>
       <c r="V88" t="s">
-        <v>863</v>
+        <v>874</v>
       </c>
       <c r="W88" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X88">
         <v>0</v>
@@ -9809,49 +9845,49 @@
         <v>324</v>
       </c>
       <c r="I89" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="J89" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K89" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="L89" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M89" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="N89" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="O89" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P89" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q89" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="R89" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="S89" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T89" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="U89">
         <v>63</v>
       </c>
       <c r="V89" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="W89" t="s">
-        <v>942</v>
+        <v>953</v>
       </c>
       <c r="X89">
         <v>0</v>
@@ -9883,52 +9919,52 @@
         <v>324</v>
       </c>
       <c r="I90" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="J90" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K90" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M90" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="N90" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="O90" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P90" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q90" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="R90" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="S90" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="T90" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="U90">
         <v>202</v>
       </c>
       <c r="V90" t="s">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="W90" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="X90">
         <v>0</v>
       </c>
       <c r="Y90" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -9953,6 +9989,51 @@
       <c r="G91" t="s">
         <v>323</v>
       </c>
+      <c r="H91" t="s">
+        <v>324</v>
+      </c>
+      <c r="I91" t="s">
+        <v>432</v>
+      </c>
+      <c r="J91" t="s">
+        <v>442</v>
+      </c>
+      <c r="K91" t="s">
+        <v>443</v>
+      </c>
+      <c r="L91" t="s">
+        <v>495</v>
+      </c>
+      <c r="M91" t="s">
+        <v>530</v>
+      </c>
+      <c r="N91" t="s">
+        <v>547</v>
+      </c>
+      <c r="O91" t="s">
+        <v>557</v>
+      </c>
+      <c r="R91" t="s">
+        <v>698</v>
+      </c>
+      <c r="S91" t="s">
+        <v>711</v>
+      </c>
+      <c r="T91" t="s">
+        <v>785</v>
+      </c>
+      <c r="U91">
+        <v>123</v>
+      </c>
+      <c r="V91" t="s">
+        <v>876</v>
+      </c>
+      <c r="W91" t="s">
+        <v>954</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
@@ -9980,49 +10061,49 @@
         <v>324</v>
       </c>
       <c r="I92" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="J92" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K92" t="s">
         <v>26</v>
       </c>
       <c r="L92" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="M92" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="N92" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O92" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P92" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="Q92" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="R92" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="S92" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T92" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
       <c r="U92">
         <v>166</v>
       </c>
       <c r="V92" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
       <c r="W92" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X92">
         <v>0</v>
@@ -10054,46 +10135,46 @@
         <v>324</v>
       </c>
       <c r="I93" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="J93" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K93" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L93" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="M93" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="N93" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="O93" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="P93" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q93" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="R93" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="S93" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="U93">
         <v>183</v>
       </c>
       <c r="V93" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="W93" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="X93">
         <v>0</v>
@@ -10125,49 +10206,49 @@
         <v>324</v>
       </c>
       <c r="I94" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="J94" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K94" t="s">
         <v>33</v>
       </c>
       <c r="L94" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="M94" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="N94" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="O94" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="P94" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q94" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="R94" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="S94" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T94" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="U94">
         <v>55</v>
       </c>
       <c r="V94" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="W94" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="X94">
         <v>0</v>
@@ -10199,49 +10280,49 @@
         <v>324</v>
       </c>
       <c r="I95" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="J95" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K95" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L95" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="M95" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="N95" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="O95" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="P95" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="Q95" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="R95" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="S95" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="T95" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="U95">
         <v>259</v>
       </c>
       <c r="V95" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="W95" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X95">
         <v>0</v>
@@ -10273,46 +10354,46 @@
         <v>324</v>
       </c>
       <c r="I96" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="J96" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K96" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L96" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="M96" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="N96" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="O96" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="Q96" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="R96" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="S96" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="T96" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="U96">
         <v>831</v>
       </c>
       <c r="V96" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="W96" t="s">
-        <v>938</v>
+        <v>949</v>
       </c>
       <c r="X96">
         <v>0</v>
@@ -10341,49 +10422,49 @@
         <v>323</v>
       </c>
       <c r="H97" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="I97" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="J97" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K97" t="s">
         <v>27</v>
       </c>
       <c r="M97" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="N97" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="Q97" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="R97" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="S97" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T97" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
       <c r="U97">
         <v>1057</v>
       </c>
       <c r="V97" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
       <c r="W97" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="X97">
         <v>0</v>
       </c>
       <c r="Y97" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
     </row>
     <row r="98" spans="1:25">
@@ -10412,52 +10493,52 @@
         <v>324</v>
       </c>
       <c r="I98" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="J98" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K98" t="s">
         <v>30</v>
       </c>
       <c r="M98" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="N98" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="O98" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="P98" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q98" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="R98" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="S98" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T98" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
       <c r="U98">
         <v>9</v>
       </c>
       <c r="V98" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="W98" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="X98">
         <v>9</v>
       </c>
       <c r="Y98" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -10486,49 +10567,49 @@
         <v>324</v>
       </c>
       <c r="I99" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="J99" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K99" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L99" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="M99" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="N99" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="O99" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="P99" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q99" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="R99" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="S99" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T99" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="U99">
         <v>12</v>
       </c>
       <c r="V99" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="W99" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="X99">
         <v>3</v>
@@ -10560,49 +10641,49 @@
         <v>324</v>
       </c>
       <c r="I100" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="J100" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="K100" t="s">
         <v>30</v>
       </c>
       <c r="L100" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="M100" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="N100" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="O100" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="P100" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q100" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="R100" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="S100" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="T100" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
       <c r="U100">
         <v>8</v>
       </c>
       <c r="V100" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="W100" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="X100">
         <v>16</v>
